--- a/Colors.xlsx
+++ b/Colors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUPER-FLINSTONES\Desktop\CV_Dukay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42F175D-CFE4-46E7-A1B8-FBA10BB33E3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D77E10-785C-42BB-8BB3-1E4E54023C74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="2100" windowWidth="14400" windowHeight="8250" xr2:uid="{3328ED3B-013A-466C-BDAD-7FF52ADFED6D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{3328ED3B-013A-466C-BDAD-7FF52ADFED6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Colors_table" sheetId="1" r:id="rId1"/>
@@ -141,44 +141,52 @@
     <t>Floral white-Taupe gray</t>
   </si>
   <si>
-    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/9561ba175215b42c1ccb1636f483405c3a2d368d/03%20Colors%20icons/color%2001.png</t>
-  </si>
-  <si>
-    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/9561ba175215b42c1ccb1636f483405c3a2d368d/03%20Colors%20icons/color%2002.png</t>
-  </si>
-  <si>
-    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/9561ba175215b42c1ccb1636f483405c3a2d368d/03%20Colors%20icons/color%2003.png</t>
-  </si>
-  <si>
-    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/9561ba175215b42c1ccb1636f483405c3a2d368d/03%20Colors%20icons/color%2004.png</t>
-  </si>
-  <si>
-    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/9561ba175215b42c1ccb1636f483405c3a2d368d/03%20Colors%20icons/color%2005.png</t>
-  </si>
-  <si>
-    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/9561ba175215b42c1ccb1636f483405c3a2d368d/03%20Colors%20icons/color%2006.png</t>
-  </si>
-  <si>
-    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/9561ba175215b42c1ccb1636f483405c3a2d368d/03%20Colors%20icons/color%2007.png</t>
-  </si>
-  <si>
-    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/9561ba175215b42c1ccb1636f483405c3a2d368d/03%20Colors%20icons/color%2008.png</t>
-  </si>
-  <si>
-    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/9561ba175215b42c1ccb1636f483405c3a2d368d/03%20Colors%20icons/color%2009.png</t>
-  </si>
-  <si>
-    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/9561ba175215b42c1ccb1636f483405c3a2d368d/03%20Colors%20icons/color%2010.png</t>
+    <t>https://raw.githubusercontent.com/Ing-Aladar-Dukay/CV_Dukay/9561ba175215b42c1ccb1636f483405c3a2d368d/03%20Colors%20icons/color%2001.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Ing-Aladar-Dukay/CV_Dukay/9561ba175215b42c1ccb1636f483405c3a2d368d/03%20Colors%20icons/color%2002.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Ing-Aladar-Dukay/CV_Dukay/9561ba175215b42c1ccb1636f483405c3a2d368d/03%20Colors%20icons/color%2003.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Ing-Aladar-Dukay/CV_Dukay/9561ba175215b42c1ccb1636f483405c3a2d368d/03%20Colors%20icons/color%2004.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Ing-Aladar-Dukay/CV_Dukay/9561ba175215b42c1ccb1636f483405c3a2d368d/03%20Colors%20icons/color%2005.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Ing-Aladar-Dukay/CV_Dukay/9561ba175215b42c1ccb1636f483405c3a2d368d/03%20Colors%20icons/color%2006.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Ing-Aladar-Dukay/CV_Dukay/9561ba175215b42c1ccb1636f483405c3a2d368d/03%20Colors%20icons/color%2007.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Ing-Aladar-Dukay/CV_Dukay/9561ba175215b42c1ccb1636f483405c3a2d368d/03%20Colors%20icons/color%2008.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Ing-Aladar-Dukay/CV_Dukay/9561ba175215b42c1ccb1636f483405c3a2d368d/03%20Colors%20icons/color%2009.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Ing-Aladar-Dukay/CV_Dukay/9561ba175215b42c1ccb1636f483405c3a2d368d/03%20Colors%20icons/color%2010.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="238"/>
@@ -201,15 +209,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hypertextové prepojenie" xfId="1" builtinId="8"/>
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -546,7 +557,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -588,7 +599,7 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -606,7 +617,7 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -624,7 +635,7 @@
       <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -642,7 +653,7 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -660,7 +671,7 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -678,7 +689,7 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -696,7 +707,7 @@
       <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -714,7 +725,7 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -732,7 +743,7 @@
       <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -750,12 +761,24 @@
       <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E10" xr:uid="{76D953CB-93A7-4F69-865F-BE437D6F7D0C}"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{D08E27CA-30C4-4C55-8415-4D67F173C63C}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{20039D9B-ABE5-473A-9265-54245C0C1891}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{B2512EAC-C9C9-4D98-B045-9E216F31AFC2}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{659D22E1-0EA2-46F9-97B1-996A5D793776}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{3BC710DC-CFB8-4AF7-828A-6432DBFA2FF0}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{CEFCA8A2-4A8A-438E-9F57-804B2A058C3D}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{03BAE9EC-A253-496B-A670-DFCBEA6A3689}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{D0F6A884-F084-49BB-AA77-E984AA4A5C1D}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{2AA6B674-E5A0-4C42-9BA4-781AFC648717}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{C0FDEF86-C55F-4571-A007-5610E0266D62}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Colors.xlsx
+++ b/Colors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUPER-FLINSTONES\Desktop\CV_Dukay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D77E10-785C-42BB-8BB3-1E4E54023C74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1F043E-5AD9-45BA-8258-AA0036C6FC23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{3328ED3B-013A-466C-BDAD-7FF52ADFED6D}"/>
+    <workbookView xWindow="960" yWindow="3510" windowWidth="10755" windowHeight="8490" xr2:uid="{3328ED3B-013A-466C-BDAD-7FF52ADFED6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Colors_table" sheetId="1" r:id="rId1"/>
@@ -51,124 +51,124 @@
     <t>Icon_url</t>
   </si>
   <si>
-    <t>#FFD700</t>
-  </si>
-  <si>
-    <t>#000000</t>
-  </si>
-  <si>
     <t>#FF00FF</t>
   </si>
   <si>
-    <t>#00FFFF</t>
-  </si>
-  <si>
-    <t>#FBFBF2</t>
-  </si>
-  <si>
-    <t>#847577</t>
-  </si>
-  <si>
-    <t>#FF9F1C</t>
-  </si>
-  <si>
-    <t>#2EC4B6</t>
-  </si>
-  <si>
     <t>#9CD08F</t>
   </si>
   <si>
-    <t>#684551</t>
-  </si>
-  <si>
     <t>#F5F5DC</t>
   </si>
   <si>
     <t>#D91E36</t>
   </si>
   <si>
-    <t>#E0D3DE</t>
-  </si>
-  <si>
     <t>#800080</t>
   </si>
   <si>
-    <t>Gold-Black</t>
-  </si>
-  <si>
-    <t>Cyan-Magenta</t>
-  </si>
-  <si>
-    <t>Pistachio-Eggplant</t>
-  </si>
-  <si>
-    <t>Beige-Crimson</t>
-  </si>
-  <si>
-    <t>Pale purple-Purple</t>
-  </si>
-  <si>
-    <t>#823038</t>
-  </si>
-  <si>
-    <t>Platinum-Wine</t>
-  </si>
-  <si>
-    <t>#EAEAEA</t>
-  </si>
-  <si>
-    <t>Orange peel-Light sea green</t>
-  </si>
-  <si>
     <t>#E52165</t>
   </si>
   <si>
     <t>#0D1137</t>
   </si>
   <si>
-    <t>Razzmatazz-Oxford Blue</t>
-  </si>
-  <si>
-    <t>#500472</t>
-  </si>
-  <si>
-    <t>#79CBB8</t>
-  </si>
-  <si>
-    <t>Indigo-Tiffany Blue</t>
-  </si>
-  <si>
-    <t>Floral white-Taupe gray</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/Ing-Aladar-Dukay/CV_Dukay/9561ba175215b42c1ccb1636f483405c3a2d368d/03%20Colors%20icons/color%2001.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/Ing-Aladar-Dukay/CV_Dukay/9561ba175215b42c1ccb1636f483405c3a2d368d/03%20Colors%20icons/color%2002.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/Ing-Aladar-Dukay/CV_Dukay/9561ba175215b42c1ccb1636f483405c3a2d368d/03%20Colors%20icons/color%2003.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/Ing-Aladar-Dukay/CV_Dukay/9561ba175215b42c1ccb1636f483405c3a2d368d/03%20Colors%20icons/color%2004.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/Ing-Aladar-Dukay/CV_Dukay/9561ba175215b42c1ccb1636f483405c3a2d368d/03%20Colors%20icons/color%2005.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/Ing-Aladar-Dukay/CV_Dukay/9561ba175215b42c1ccb1636f483405c3a2d368d/03%20Colors%20icons/color%2006.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/Ing-Aladar-Dukay/CV_Dukay/9561ba175215b42c1ccb1636f483405c3a2d368d/03%20Colors%20icons/color%2007.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/Ing-Aladar-Dukay/CV_Dukay/9561ba175215b42c1ccb1636f483405c3a2d368d/03%20Colors%20icons/color%2008.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/Ing-Aladar-Dukay/CV_Dukay/9561ba175215b42c1ccb1636f483405c3a2d368d/03%20Colors%20icons/color%2009.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/Ing-Aladar-Dukay/CV_Dukay/9561ba175215b42c1ccb1636f483405c3a2d368d/03%20Colors%20icons/color%2010.png</t>
+    <t>Mint-Navy</t>
+  </si>
+  <si>
+    <t>#D1FFE7</t>
+  </si>
+  <si>
+    <t>#001F3F</t>
+  </si>
+  <si>
+    <t>Lemon-Charcoal</t>
+  </si>
+  <si>
+    <t>#FFF44F</t>
+  </si>
+  <si>
+    <t>#2E2E2E</t>
+  </si>
+  <si>
+    <t>Magenta-Purple</t>
+  </si>
+  <si>
+    <t>Pearl-Aubergine</t>
+  </si>
+  <si>
+    <t>#F8F8F8</t>
+  </si>
+  <si>
+    <t>#4B1035</t>
+  </si>
+  <si>
+    <t>Linen-Forest Green</t>
+  </si>
+  <si>
+    <t>#FAF0E6</t>
+  </si>
+  <si>
+    <t>#014421</t>
+  </si>
+  <si>
+    <t>Rust-Ivory</t>
+  </si>
+  <si>
+    <t>#B7410E</t>
+  </si>
+  <si>
+    <t>#FFFFF0</t>
+  </si>
+  <si>
+    <t>Sapphire-Snow</t>
+  </si>
+  <si>
+    <t>#0F52BA</t>
+  </si>
+  <si>
+    <t>#F5F9FF</t>
+  </si>
+  <si>
+    <t>Oxford Blue-Razzmatazz</t>
+  </si>
+  <si>
+    <t>Saddle Brown-Pistachio</t>
+  </si>
+  <si>
+    <t>#8B4513</t>
+  </si>
+  <si>
+    <t>Crimson-Beige</t>
+  </si>
+  <si>
+    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/48b0caa698feb100b62b165092eb3718719c5bc2/03%20Colors%20icons/color_01.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/48b0caa698feb100b62b165092eb3718719c5bc2/03%20Colors%20icons/color_02.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/48b0caa698feb100b62b165092eb3718719c5bc2/03%20Colors%20icons/color_03.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/48b0caa698feb100b62b165092eb3718719c5bc2/03%20Colors%20icons/color_04.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/48b0caa698feb100b62b165092eb3718719c5bc2/03%20Colors%20icons/color_05.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/48b0caa698feb100b62b165092eb3718719c5bc2/03%20Colors%20icons/color_06.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/48b0caa698feb100b62b165092eb3718719c5bc2/03%20Colors%20icons/color_07.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/48b0caa698feb100b62b165092eb3718719c5bc2/03%20Colors%20icons/color_08.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/48b0caa698feb100b62b165092eb3718719c5bc2/03%20Colors%20icons/color_09.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/48b0caa698feb100b62b165092eb3718719c5bc2/03%20Colors%20icons/color_10.png</t>
   </si>
 </sst>
 </file>
@@ -557,7 +557,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -591,13 +591,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>35</v>
@@ -605,17 +605,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>36</v>
@@ -623,17 +622,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A11" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>37</v>
@@ -641,17 +639,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>38</v>
@@ -659,17 +656,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>39</v>
@@ -677,17 +673,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>40</v>
@@ -695,17 +690,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>41</v>
@@ -713,17 +707,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>42</v>
@@ -731,17 +724,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>43</v>
@@ -749,17 +741,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>44</v>
@@ -767,18 +758,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E10" xr:uid="{76D953CB-93A7-4F69-865F-BE437D6F7D0C}"/>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{D08E27CA-30C4-4C55-8415-4D67F173C63C}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{20039D9B-ABE5-473A-9265-54245C0C1891}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{B2512EAC-C9C9-4D98-B045-9E216F31AFC2}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{659D22E1-0EA2-46F9-97B1-996A5D793776}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{3BC710DC-CFB8-4AF7-828A-6432DBFA2FF0}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{CEFCA8A2-4A8A-438E-9F57-804B2A058C3D}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{03BAE9EC-A253-496B-A670-DFCBEA6A3689}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{D0F6A884-F084-49BB-AA77-E984AA4A5C1D}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{2AA6B674-E5A0-4C42-9BA4-781AFC648717}"/>
-    <hyperlink ref="E11" r:id="rId10" xr:uid="{C0FDEF86-C55F-4571-A007-5610E0266D62}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Colors.xlsx
+++ b/Colors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUPER-FLINSTONES\Desktop\CV_Dukay\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://trw1-my.sharepoint.com/personal/aladar_dukay_zf_com/Documents/Desktop/CV new/new 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1F043E-5AD9-45BA-8258-AA0036C6FC23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4D1F043E-5AD9-45BA-8258-AA0036C6FC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50C7F5EE-BD18-44BE-905A-419678CEECDD}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="3510" windowWidth="10755" windowHeight="8490" xr2:uid="{3328ED3B-013A-466C-BDAD-7FF52ADFED6D}"/>
+    <workbookView xWindow="8595" yWindow="5550" windowWidth="15480" windowHeight="10380" xr2:uid="{3328ED3B-013A-466C-BDAD-7FF52ADFED6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Colors_table" sheetId="1" r:id="rId1"/>
@@ -147,9 +147,6 @@
     <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/48b0caa698feb100b62b165092eb3718719c5bc2/03%20Colors%20icons/color_02.png</t>
   </si>
   <si>
-    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/48b0caa698feb100b62b165092eb3718719c5bc2/03%20Colors%20icons/color_03.png</t>
-  </si>
-  <si>
     <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/48b0caa698feb100b62b165092eb3718719c5bc2/03%20Colors%20icons/color_04.png</t>
   </si>
   <si>
@@ -169,6 +166,9 @@
   </si>
   <si>
     <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/48b0caa698feb100b62b165092eb3718719c5bc2/03%20Colors%20icons/color_10.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/46ceb0c7b57c0fa1196c0a1bf7357bb73838ec6b/03%20Colors%20icons/color%2003.png</t>
   </si>
 </sst>
 </file>
@@ -557,7 +557,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -634,7 +634,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -651,7 +651,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -668,7 +668,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -685,7 +685,7 @@
         <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -702,7 +702,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -719,7 +719,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -736,7 +736,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -753,7 +753,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Colors.xlsx
+++ b/Colors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://trw1-my.sharepoint.com/personal/aladar_dukay_zf_com/Documents/Desktop/CV new/new 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4D1F043E-5AD9-45BA-8258-AA0036C6FC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50C7F5EE-BD18-44BE-905A-419678CEECDD}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{4D1F043E-5AD9-45BA-8258-AA0036C6FC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{118CD210-7200-4669-9143-4DADA7840A41}"/>
   <bookViews>
-    <workbookView xWindow="8595" yWindow="5550" windowWidth="15480" windowHeight="10380" xr2:uid="{3328ED3B-013A-466C-BDAD-7FF52ADFED6D}"/>
+    <workbookView xWindow="11895" yWindow="6780" windowWidth="15480" windowHeight="10380" xr2:uid="{3328ED3B-013A-466C-BDAD-7FF52ADFED6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Colors_table" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>#D91E36</t>
   </si>
   <si>
-    <t>#800080</t>
-  </si>
-  <si>
     <t>#E52165</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>#2E2E2E</t>
   </si>
   <si>
-    <t>Magenta-Purple</t>
-  </si>
-  <si>
     <t>Pearl-Aubergine</t>
   </si>
   <si>
@@ -168,7 +162,13 @@
     <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/48b0caa698feb100b62b165092eb3718719c5bc2/03%20Colors%20icons/color_10.png</t>
   </si>
   <si>
-    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/46ceb0c7b57c0fa1196c0a1bf7357bb73838ec6b/03%20Colors%20icons/color%2003.png</t>
+    <t>#4B0082</t>
+  </si>
+  <si>
+    <t>Magenta-Indigo</t>
+  </si>
+  <si>
+    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/ca69b799c3560f1ac838964c7657905827b14bf9/03%20Colors%20icons/color%2003.png</t>
   </si>
 </sst>
 </file>
@@ -591,16 +591,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -608,16 +608,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -625,13 +625,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>44</v>
@@ -642,16 +642,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -659,16 +659,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -676,16 +676,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -693,16 +693,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -710,16 +710,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -727,16 +727,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -744,7 +744,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -753,7 +753,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Colors.xlsx
+++ b/Colors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://trw1-my.sharepoint.com/personal/aladar_dukay_zf_com/Documents/Desktop/CV new/new 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{4D1F043E-5AD9-45BA-8258-AA0036C6FC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{118CD210-7200-4669-9143-4DADA7840A41}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{4D1F043E-5AD9-45BA-8258-AA0036C6FC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{826A4680-DE15-488E-8356-3904FEDBAD33}"/>
   <bookViews>
-    <workbookView xWindow="11895" yWindow="6780" windowWidth="15480" windowHeight="10380" xr2:uid="{3328ED3B-013A-466C-BDAD-7FF52ADFED6D}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{3328ED3B-013A-466C-BDAD-7FF52ADFED6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Colors_table" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
     <t>Magenta-Indigo</t>
   </si>
   <si>
-    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/ca69b799c3560f1ac838964c7657905827b14bf9/03%20Colors%20icons/color%2003.png</t>
+    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/622c97a85b9033e5c2bd2c66931c4a8961f7bb1d/03%20Colors%20icons/color_03.png</t>
   </si>
 </sst>
 </file>
